--- a/3d-model/OutStpFan/dummy_boards_bom.xlsx
+++ b/3d-model/OutStpFan/dummy_boards_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\project\dummy\3d-model\dummy\3d-model\OutStpFan\OutStpFan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduNetdiskDownload\FANwrok\FanOpenProj\Out_FAN\dummy\3d-model\OutStpFan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59BCFC6-A348-4FC6-A933-423E3A1C5C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2231EA-46ED-49D0-AE0E-76FED2EFE328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="2175" windowWidth="30645" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REF" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="275">
   <si>
     <t>Comment</t>
   </si>
@@ -791,9 +791,6 @@
     <t>Joint4_Dummy v164 v1</t>
   </si>
   <si>
-    <t>Joint6_Dummy v164 v1</t>
-  </si>
-  <si>
     <t>min-11-bra-connection v164 v1</t>
   </si>
   <si>
@@ -804,9 +801,6 @@
   </si>
   <si>
     <t>motor42-br-top v164 v1</t>
-  </si>
-  <si>
-    <t>tape v164 v1</t>
   </si>
   <si>
     <t>base1_Dummy v164 v1</t>
@@ -952,14 +946,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>脚垫条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>不做</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>8-50</t>
     </r>
@@ -976,6 +962,10 @@
   </si>
   <si>
     <t>Joint5_Dummy v164 v1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joint6_Dummy v164 v3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4184,7 +4174,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4196,21 +4186,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>260</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
@@ -4218,10 +4208,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
@@ -4232,7 +4222,7 @@
         <v>248</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
@@ -4243,7 +4233,7 @@
         <v>249</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
@@ -4254,7 +4244,7 @@
         <v>250</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
@@ -4265,7 +4255,7 @@
         <v>251</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
@@ -4273,21 +4263,21 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>252</v>
+      <c r="A9" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
@@ -4295,10 +4285,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
@@ -4306,10 +4296,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C11" s="13">
         <v>4</v>
@@ -4317,36 +4307,29 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C12" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C13" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>275</v>
-      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
